--- a/Document/Android/Database/android_数据库.xlsx
+++ b/Document/Android/Database/android_数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="3200" windowWidth="25600" windowHeight="18120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Hardware</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,56 +202,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>创建该类的子类,通过子类对象的getReadableDatabase()方法或getWritableDatabase()方法即可返回一个SQLiteDatabase对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来对数据的操作就用到SQLiteDatabase对象的方法了,如execSQL(), insert(), update(), query(), rawQuery(), delete()等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过openOrCreateDatabase(String dbName, int mode, CursorFactory factory)方法创建或打开数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbName：数据库名称。</t>
+  </si>
+  <si>
+    <t>mode：数据库操作模式。默认值为MODE_PRIVATE（即0）。可选值：MODE_WORLD_READABLE, MODE_WORLD_WRITABLE, MODE_ENABLE_WRITE_AHEAD_LOGGING</t>
+  </si>
+  <si>
+    <t>factory：附加的一个工厂类，当SQLiteDatabase实例的query函数被调用时，会使用该工厂类返回一个Cursor。可为null。</t>
+  </si>
+  <si>
+    <t>通过静态方法openOrCreateDatabases()方法可以创建或打开数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openOrCreateDatabase(String path, CursorFactory factory)</t>
+  </si>
+  <si>
+    <t>openOrCreateDatabase(File file, CursorFactory factory)</t>
+  </si>
+  <si>
+    <t>openOrCreateDatabase(String path, CursorFactory factory, DatabaseErrorHandler errorHandler)</t>
+  </si>
+  <si>
+    <t>通过该方法打开或创建的数据库文件可与上述两个方法的路径不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 SQLiteOpenHelper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3 SQLiteDatabase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>创建该类的子类,通过子类对象的getReadableDatabase()方法或getWritableDatabase()方法即可返回一个SQLiteDatabase对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接下来对数据的操作就用到SQLiteDatabase对象的方法了,如execSQL(), insert(), update(), query(), rawQuery(), delete()等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过该方法创建的数据库存放的目录是固定的，其路径为/data/data/packageName/databases/</t>
-  </si>
-  <si>
-    <t>1 SQLiteOpenHelper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过openOrCreateDatabase(String dbName, int mode, CursorFactory factory)方法创建或打开数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbName：数据库名称。</t>
-  </si>
-  <si>
-    <t>mode：数据库操作模式。默认值为MODE_PRIVATE（即0）。可选值：MODE_WORLD_READABLE, MODE_WORLD_WRITABLE, MODE_ENABLE_WRITE_AHEAD_LOGGING</t>
-  </si>
-  <si>
-    <t>factory：附加的一个工厂类，当SQLiteDatabase实例的query函数被调用时，会使用该工厂类返回一个Cursor。可为null。</t>
-  </si>
-  <si>
-    <t>通过静态方法openOrCreateDatabases()方法可以创建或打开数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openOrCreateDatabase(String path, CursorFactory factory)</t>
-  </si>
-  <si>
-    <t>openOrCreateDatabase(File file, CursorFactory factory)</t>
-  </si>
-  <si>
-    <t>openOrCreateDatabase(String path, CursorFactory factory, DatabaseErrorHandler errorHandler)</t>
-  </si>
-  <si>
-    <t>通过该方法创建的数据库存放的目录是固定的，其路径为/data/data/packageName/databases/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过该方法打开或创建的数据库文件可与上述两个方法的路径不同。</t>
+    <t>SQLiteOpenHelper是个辅助类,是为了能够方便管理SQLiteDatabase对象(数据库)的创建/打开,升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而其创建数据库就要依赖SQLiteDatabase和Context了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            } else {  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if (mName == null) {  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                db = SQLiteDatabase.create(null);  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                db = mContext.openOrCreateDatabase(mName, 0, mFactory);  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例化一个SQLiteOpenHelper的子类,并不会创建/打开了数据库,而是要调用它的实例方法getWritableDatabase()/getReadableDatabase()来完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从getWritableDatabase()的实现中,有这么一段逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理,在getReadableDatabase()中其实调用的是getWritableDatabase()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这说明了,数据库的创建是通过SQLiteDatabase.create()或Context的openOrCreateDatabase()来完成的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而Context的openOrCreateDatabase(),调用的也是SQLiteDatabase的静态方法openOrCreateDatabase()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综上所述,SQLiteDatabase类是android上对sqlite的最底层的封装，几乎所有的对数据库的操作最终都通过这个类来实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它两个类,是为了方便使用,或在某写场景下对SQLiteDatabase的封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上3者之间的关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过该方法创建的数据库存放的目录是固定的，其路径为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/data/data/packageName/databases/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过该方法创建的数据库存放的目录是固定的，其路径为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/data/data/packageName/databases/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Preference，File存储方式分别对应的目录是/data/data/Package Name/Shared_Pref, /data/data/Package Name/files </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +398,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -821,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1027,10 +1129,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C31"/>
+  <dimension ref="B3:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1045,82 +1147,172 @@
     </row>
     <row r="5" spans="2:3">
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="C44" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
-      <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3">
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
+    <row r="45" spans="2:3">
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="2" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="D50" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="D51" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="D52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="D53" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="D54" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
